--- a/BackTest/2019-10-19 BackTest XEM.xlsx
+++ b/BackTest/2019-10-19 BackTest XEM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>47.05000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
       <c r="L13" t="n">
         <v>47.07000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>50</v>
+      </c>
       <c r="L14" t="n">
         <v>47.09000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>59.99999999999943</v>
+      </c>
       <c r="L15" t="n">
         <v>47.13000000000002</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.6000000000000014</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>49.99999999999911</v>
+      </c>
       <c r="L16" t="n">
         <v>47.16000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>47.16000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571458</v>
+      </c>
       <c r="L18" t="n">
         <v>47.17000000000002</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571458</v>
+      </c>
       <c r="L19" t="n">
         <v>47.18000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571458</v>
+      </c>
       <c r="L20" t="n">
         <v>47.18000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25.00000000000044</v>
+      </c>
       <c r="L21" t="n">
         <v>47.16000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>47.15000000000002</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.200000000000003</v>
       </c>
       <c r="K23" t="n">
-        <v>16.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>47.15000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.200000000000003</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666686</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L24" t="n">
         <v>47.15000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.300000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>23.07692307692333</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L25" t="n">
         <v>47.14000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.300000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666686</v>
+        <v>20</v>
       </c>
       <c r="L26" t="n">
         <v>47.13000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.70000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-20.00000000000019</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>47.10000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.800000000000011</v>
       </c>
       <c r="K28" t="n">
-        <v>-12.50000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>47.07000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>1.800000000000011</v>
       </c>
       <c r="K29" t="n">
-        <v>-12.50000000000011</v>
+        <v>-25</v>
       </c>
       <c r="L29" t="n">
         <v>47.04000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.000000000000014</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L30" t="n">
         <v>47.04000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.100000000000016</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.1111111111112</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L31" t="n">
         <v>47.04000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>2.200000000000017</v>
       </c>
       <c r="K32" t="n">
-        <v>-15.78947368421064</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>47.02</v>
@@ -1911,7 +1933,7 @@
         <v>2.300000000000018</v>
       </c>
       <c r="K33" t="n">
-        <v>-15.78947368421064</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L33" t="n">
         <v>46.98999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>2.600000000000023</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L34" t="n">
         <v>46.98999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.600000000000023</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.99999999999968</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L35" t="n">
         <v>46.98</v>
@@ -2064,7 +2086,7 @@
         <v>2.800000000000018</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L36" t="n">
         <v>46.99</v>
@@ -2115,7 +2137,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>14.285714285714</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L37" t="n">
         <v>47.05</v>
@@ -2166,7 +2188,7 @@
         <v>3.100000000000016</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L38" t="n">
         <v>47.08000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K39" t="n">
-        <v>11.99999999999982</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L39" t="n">
         <v>47.14000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K40" t="n">
-        <v>19.99999999999989</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L40" t="n">
         <v>47.19000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K41" t="n">
-        <v>24.99999999999993</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L41" t="n">
         <v>47.25000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K42" t="n">
-        <v>21.7391304347825</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L42" t="n">
         <v>47.32000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>3.500000000000014</v>
       </c>
       <c r="K43" t="n">
-        <v>21.7391304347825</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L43" t="n">
         <v>47.40000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>3.900000000000013</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333316</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L44" t="n">
         <v>47.49000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>37.93103448275835</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L45" t="n">
         <v>47.61000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>37.93103448275835</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L46" t="n">
         <v>47.71000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>4.300000000000011</v>
       </c>
       <c r="K47" t="n">
-        <v>61.53846153846156</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>47.81000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>4.400000000000013</v>
       </c>
       <c r="K48" t="n">
-        <v>61.53846153846156</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>47.94000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>4.600000000000016</v>
       </c>
       <c r="K49" t="n">
-        <v>64.28571428571433</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>48.06000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>4.600000000000016</v>
       </c>
       <c r="K50" t="n">
-        <v>61.53846153846156</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>48.17000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>4.600000000000016</v>
       </c>
       <c r="K51" t="n">
-        <v>68.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>48.28000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>4.600000000000016</v>
       </c>
       <c r="K52" t="n">
-        <v>75.00000000000023</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>48.39000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>83.33333333333363</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>48.51000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>80.95238095238125</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>48.59000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>80.95238095238125</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>48.64</v>
@@ -3084,7 +3106,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>78.94736842105299</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>48.69</v>
@@ -3135,7 +3157,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>77.77777777777813</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>48.73</v>
@@ -3237,7 +3259,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>85.71428571428645</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>48.76000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="K60" t="n">
-        <v>86.6666666666673</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L60" t="n">
         <v>48.78000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K61" t="n">
-        <v>64.70588235294197</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>48.78000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>66.66666666666733</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>48.79000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>66.66666666666733</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>48.79000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>5.899999999999984</v>
       </c>
       <c r="K64" t="n">
-        <v>10.00000000000028</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L64" t="n">
         <v>48.73000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-23.80952380952404</v>
+        <v>-62.50000000000077</v>
       </c>
       <c r="L65" t="n">
         <v>48.63000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-23.80952380952404</v>
+        <v>-62.50000000000077</v>
       </c>
       <c r="L66" t="n">
         <v>48.53000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K67" t="n">
-        <v>-23.80952380952404</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L67" t="n">
         <v>48.44000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K68" t="n">
-        <v>-30.00000000000039</v>
+        <v>-50.00000000000067</v>
       </c>
       <c r="L68" t="n">
         <v>48.35000000000002</v>
@@ -3747,7 +3769,7 @@
         <v>6.499999999999993</v>
       </c>
       <c r="K69" t="n">
-        <v>-47.36842105263244</v>
+        <v>-73.33333333333377</v>
       </c>
       <c r="L69" t="n">
         <v>48.26000000000002</v>
@@ -3798,7 +3820,7 @@
         <v>6.79999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>-54.54545454545531</v>
+        <v>-75.00000000000044</v>
       </c>
       <c r="L70" t="n">
         <v>48.12000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>-25.92592592592628</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L71" t="n">
         <v>48.05000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K72" t="n">
-        <v>-21.42857142857167</v>
+        <v>-33.33333333333311</v>
       </c>
       <c r="L72" t="n">
         <v>47.98000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>7.499999999999993</v>
       </c>
       <c r="K73" t="n">
-        <v>-21.42857142857136</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>47.92000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>7.599999999999987</v>
       </c>
       <c r="K74" t="n">
-        <v>-17.24137931034496</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L74" t="n">
         <v>47.93000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K75" t="n">
-        <v>-20</v>
+        <v>28.57142857142915</v>
       </c>
       <c r="L75" t="n">
         <v>47.97000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K76" t="n">
-        <v>-20</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L76" t="n">
         <v>48.01000000000001</v>

--- a/BackTest/2019-10-19 BackTest XEM.xlsx
+++ b/BackTest/2019-10-19 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-117147.88679127</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-114891.97429127</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-119707.49969127</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-110431.03529127</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-113426.51509127</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-118242.04049127</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,19 @@
         <v>-368812.17479127</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1940,23 @@
         <v>-368009.84569127</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1981,23 @@
         <v>-368009.84569127</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>47.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2154,19 @@
         <v>-363399.78719127</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>47.1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2191,23 @@
         <v>-363311.76171357</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="J54" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2232,23 @@
         <v>-367425.76171357</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2275,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2308,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2341,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2374,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2407,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2438,19 @@
         <v>-381069.13291357</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>46.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>46.8</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2475,23 @@
         <v>-381069.13291357</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>46.9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2518,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2557,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2590,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2623,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2656,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2689,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2722,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2753,19 @@
         <v>-357180.88121357</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>47.1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2792,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2831,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2870,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2903,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2936,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2969,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3002,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3035,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3068,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3101,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3134,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3165,19 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>47.1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3202,23 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3243,23 @@
         <v>-434805.52578815</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3284,19 @@
         <v>-434805.52578815</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3321,23 @@
         <v>-443294.01798815</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3362,23 @@
         <v>-441262.72368815</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>46.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,22 +3403,23 @@
         <v>-441262.72368815</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="J88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3592,26 +3444,23 @@
         <v>-437381.40738815</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="J89" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3636,26 +3485,23 @@
         <v>-437413.40738815</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="J90" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3680,22 +3526,23 @@
         <v>-439652.18258815</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J91" t="n">
-        <v>47</v>
-      </c>
-      <c r="K91" t="n">
-        <v>47</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3720,26 +3567,23 @@
         <v>-442012.69758815</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="J92" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>47</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3764,26 +3608,23 @@
         <v>-441448.93448815</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="J93" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K93" t="n">
-        <v>47</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>47.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3808,26 +3649,23 @@
         <v>-441448.93448815</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="J94" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>47</v>
-      </c>
-      <c r="L94" t="inlineStr">
+        <v>47.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3852,26 +3690,23 @@
         <v>-441415.93237399</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="J95" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>47</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>47.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3896,26 +3731,23 @@
         <v>-340146.76867399</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="J96" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K96" t="n">
-        <v>47</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>47.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3942,22 +3774,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>47</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3984,22 +3813,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>47</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4026,22 +3852,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>47</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4068,22 +3891,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>47</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4110,22 +3930,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>47</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4152,22 +3969,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>47</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4192,24 +4006,23 @@
         <v>-427524.75947399</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>47</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>47.6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4234,24 +4047,23 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>47</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>48</v>
+      </c>
+      <c r="J104" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4276,24 +4088,23 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>47</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>48.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4320,22 +4131,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>47</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4362,22 +4170,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>47</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4404,22 +4209,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>47</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4446,22 +4248,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>47</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4488,22 +4287,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>47</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4530,22 +4326,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>47</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4572,22 +4365,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>47</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4612,24 +4402,21 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>47</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.028898305084746</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4654,24 +4441,15 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>47</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4696,24 +4474,15 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>47</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4740,22 +4509,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>47</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4780,24 +4540,15 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>47</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4822,24 +4573,15 @@
         <v>-406962.22587399</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>47</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4866,22 +4608,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>47</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4908,22 +4641,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>47</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4950,22 +4674,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>47</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4992,22 +4707,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>47</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5034,22 +4740,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>47</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5076,24 +4773,15 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>47</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XEM.xlsx
+++ b/BackTest/2019-10-19 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-117147.88679127</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-114891.97429127</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-119707.49969127</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-110431.03529127</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-113426.51509127</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-118242.04049127</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-114504.65209127</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-220852.34049127</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1903,14 +1903,10 @@
         <v>-368812.17479127</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>47.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1940,19 +1936,11 @@
         <v>-368009.84569127</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1981,19 +1969,11 @@
         <v>-368009.84569127</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +2134,10 @@
         <v>-363399.78719127</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>47.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2191,19 +2167,11 @@
         <v>-363311.76171357</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>47</v>
-      </c>
-      <c r="J54" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2232,19 +2200,11 @@
         <v>-367425.76171357</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2438,14 +2398,10 @@
         <v>-381069.13291357</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>46.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2475,19 +2431,11 @@
         <v>-381069.13291357</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J62" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2621,10 +2563,14 @@
         <v>-378935.75191357</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>47</v>
+      </c>
+      <c r="J66" t="n">
+        <v>47</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2654,11 +2600,19 @@
         <v>-378935.75191357</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>47</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2690,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>47</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2713,10 @@
         <v>-357180.88121357</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>47.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2793,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2832,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3132,10 +3076,14 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>47</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3165,15 +3113,19 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>47.1</v>
       </c>
       <c r="J82" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3202,13 +3154,13 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>47.1</v>
       </c>
       <c r="J83" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3243,7 +3195,7 @@
         <v>-434805.52578815</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>47.1</v>
@@ -3251,11 +3203,7 @@
       <c r="J84" t="n">
         <v>47.1</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3284,15 +3232,19 @@
         <v>-434805.52578815</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>47.2</v>
       </c>
       <c r="J85" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3321,13 +3273,13 @@
         <v>-443294.01798815</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>47.2</v>
       </c>
       <c r="J86" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3362,13 +3314,13 @@
         <v>-441262.72368815</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>46.8</v>
       </c>
       <c r="J87" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3403,13 +3355,13 @@
         <v>-441262.72368815</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>46.9</v>
       </c>
       <c r="J88" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3444,13 +3396,13 @@
         <v>-437381.40738815</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>46.9</v>
       </c>
       <c r="J89" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3485,13 +3437,13 @@
         <v>-437413.40738815</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>47.1</v>
       </c>
       <c r="J90" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3526,13 +3478,13 @@
         <v>-439652.18258815</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>47</v>
       </c>
       <c r="J91" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3567,13 +3519,13 @@
         <v>-442012.69758815</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>46.9</v>
       </c>
       <c r="J92" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3608,13 +3560,13 @@
         <v>-441448.93448815</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>46.8</v>
       </c>
       <c r="J93" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3649,13 +3601,13 @@
         <v>-441448.93448815</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>47.1</v>
       </c>
       <c r="J94" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3690,13 +3642,13 @@
         <v>-441415.93237399</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>47.1</v>
       </c>
       <c r="J95" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3731,13 +3683,13 @@
         <v>-340146.76867399</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>47.3</v>
       </c>
       <c r="J96" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3776,7 +3728,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3815,7 +3767,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3854,7 +3806,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3893,7 +3845,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3932,7 +3884,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3971,7 +3923,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4006,13 +3958,11 @@
         <v>-427524.75947399</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>47.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4047,13 +3997,11 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4088,13 +4036,11 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>48.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4133,7 +4079,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4172,7 +4118,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4211,7 +4157,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4250,7 +4196,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4289,7 +4235,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4328,7 +4274,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4367,7 +4313,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4402,19 +4348,19 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.028898305084746</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
@@ -4441,11 +4387,17 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +4426,17 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4510,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +4504,17 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +4543,17 @@
         <v>-406962.22587399</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4609,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4642,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4675,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4708,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4741,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4774,14 +4780,20 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XEM.xlsx
+++ b/BackTest/2019-10-19 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-117147.88679127</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-114891.97429127</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-119707.49969127</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-110431.03529127</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-113426.51509127</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-118242.04049127</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-114504.65209127</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-220852.34049127</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2563,14 +2563,10 @@
         <v>-378935.75191357</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>47</v>
-      </c>
-      <c r="J66" t="n">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2600,19 +2596,11 @@
         <v>-378935.75191357</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>47</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>47</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +3058,10 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>47</v>
-      </c>
-      <c r="J81" t="n">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3113,19 +3091,11 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>47</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3154,19 +3124,11 @@
         <v>-434827.51731357</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>47</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3195,14 +3157,10 @@
         <v>-434805.52578815</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>47.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3232,19 +3190,11 @@
         <v>-434805.52578815</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3273,265 +3223,221 @@
         <v>-443294.01798815</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2031.2943</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-441262.72368815</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>367.8764</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-441262.72368815</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3881.3163</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-437381.40738815</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>47</v>
+      </c>
+      <c r="C90" t="n">
+        <v>47</v>
+      </c>
+      <c r="D90" t="n">
+        <v>47</v>
+      </c>
+      <c r="E90" t="n">
+        <v>47</v>
+      </c>
+      <c r="F90" t="n">
+        <v>32</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-437413.40738815</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2238.7752</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-439652.18258815</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>47</v>
+      </c>
+      <c r="J91" t="n">
+        <v>47</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2360.515</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-442012.69758815</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>47</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D87" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2031.2943</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-441262.72368815</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F88" t="n">
-        <v>367.8764</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-441262.72368815</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3881.3163</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-437381.40738815</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>47</v>
-      </c>
-      <c r="C90" t="n">
-        <v>47</v>
-      </c>
-      <c r="D90" t="n">
-        <v>47</v>
-      </c>
-      <c r="E90" t="n">
-        <v>47</v>
-      </c>
-      <c r="F90" t="n">
-        <v>32</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-437413.40738815</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D91" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2238.7752</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-439652.18258815</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>47</v>
-      </c>
-      <c r="J91" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C92" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D92" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E92" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2360.515</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-442012.69758815</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3566,7 +3472,7 @@
         <v>46.8</v>
       </c>
       <c r="J93" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3607,7 +3513,7 @@
         <v>47.1</v>
       </c>
       <c r="J94" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3642,13 +3548,11 @@
         <v>-441415.93237399</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3683,13 +3587,11 @@
         <v>-340146.76867399</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>47.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3728,7 +3630,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3767,7 +3669,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3806,7 +3708,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3845,7 +3747,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3884,7 +3786,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3923,7 +3825,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3962,7 +3864,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3997,19 +3899,19 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>1.022659574468085</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
@@ -4036,17 +3938,11 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4075,17 +3971,11 @@
         <v>-419702.75947399</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4114,17 +4004,11 @@
         <v>-417795.75947399</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4153,17 +4037,11 @@
         <v>-407795.75947399</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4195,14 +4073,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4234,14 +4106,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4273,14 +4139,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4312,14 +4172,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4351,14 +4205,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4390,14 +4238,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4429,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4468,14 +4304,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +4337,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +4370,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +4403,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4624,14 +4436,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4663,14 +4469,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4702,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4741,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4780,20 +4568,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest XEM.xlsx
+++ b/BackTest/2019-10-19 BackTest XEM.xlsx
@@ -451,7 +451,7 @@
         <v>-117147.88679127</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-115865.33209127</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-119707.49969127</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-110431.03529127</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-113426.51509127</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-118242.04049127</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-114504.65209127</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-222504.68349127</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -3548,9 +3548,11 @@
         <v>-441415.93237399</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J95" t="n">
         <v>47</v>
       </c>
@@ -3587,9 +3589,11 @@
         <v>-340146.76867399</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>47.3</v>
+      </c>
       <c r="J96" t="n">
         <v>47</v>
       </c>
@@ -3899,349 +3903,409 @@
         <v>-426424.75947399</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>47</v>
       </c>
       <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6306.5056</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-426424.75947399</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>47</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C106" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6722</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-419702.75947399</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>47</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1907</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-417795.75947399</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>47</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-407795.75947399</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>47</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14.2505</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-407795.75947399</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>47</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-407795.75947399</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>47</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>53812.1724</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-407795.75947399</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>47</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1832.1627</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-405963.59677399</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>47</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1829.9998</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-405963.59677399</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>47</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-405963.59677399</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>47</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1.022659574468085</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E105" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>6306.5056</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-426424.75947399</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D106" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E106" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>6722</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-419702.75947399</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C107" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1907</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-417795.75947399</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D108" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>14.2505</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C110" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D110" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E110" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C111" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D111" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E111" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>53812.1724</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1832.1627</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D113" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1829.9998</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D114" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>1.033297872340426</v>
       </c>
       <c r="M114" t="inlineStr"/>
     </row>
@@ -4268,7 +4332,7 @@
         <v>-405963.59677399</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4532,7 +4596,7 @@
         <v>-415090.29157399</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest XEM.xlsx
+++ b/BackTest/2019-10-19 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>33714.6605</v>
       </c>
       <c r="G2" t="n">
-        <v>-117147.88679127</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1282.5547</v>
       </c>
       <c r="G3" t="n">
-        <v>-115865.33209127</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6464.321</v>
       </c>
       <c r="G4" t="n">
-        <v>-115865.33209127</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>71.959</v>
       </c>
       <c r="G5" t="n">
-        <v>-115865.33209127</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>973.3578</v>
       </c>
       <c r="G6" t="n">
-        <v>-114891.97429127</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4815.5254</v>
       </c>
       <c r="G7" t="n">
-        <v>-119707.49969127</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>9276.464400000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-110431.03529127</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2995.4798</v>
       </c>
       <c r="G9" t="n">
-        <v>-113426.51509127</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4815.5254</v>
       </c>
       <c r="G10" t="n">
-        <v>-118242.04049127</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3737.3884</v>
       </c>
       <c r="G11" t="n">
-        <v>-114504.65209127</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>108000.0314</v>
       </c>
       <c r="G12" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>75026.6556</v>
       </c>
       <c r="G13" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1852.8392</v>
       </c>
       <c r="G14" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>32342.243</v>
       </c>
       <c r="G15" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1090.7623</v>
       </c>
       <c r="G16" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1987.0217</v>
       </c>
       <c r="G18" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8012.9783</v>
       </c>
       <c r="G19" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>50204.7734</v>
       </c>
       <c r="G20" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1782.2483</v>
       </c>
       <c r="G21" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>8217.751700000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-222504.68349127</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1652.343</v>
       </c>
       <c r="G23" t="n">
-        <v>-220852.34049127</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>45.5772</v>
       </c>
       <c r="G24" t="n">
-        <v>-220897.91769127</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>459.9842</v>
       </c>
       <c r="G25" t="n">
-        <v>-220437.93349127</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7317.2124</v>
       </c>
       <c r="G26" t="n">
-        <v>-227755.14589127</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>38469.6949</v>
       </c>
       <c r="G27" t="n">
-        <v>-266224.84079127</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>28095.4936</v>
       </c>
       <c r="G28" t="n">
-        <v>-266224.84079127</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>999.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>-266224.84079127</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>104687.4165</v>
       </c>
       <c r="G30" t="n">
-        <v>-266224.84079127</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>-266224.84079127</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>14510.5649</v>
       </c>
       <c r="G32" t="n">
-        <v>-280735.40569127</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>8255.9131</v>
       </c>
       <c r="G33" t="n">
-        <v>-280735.40569127</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>11301.7521</v>
       </c>
       <c r="G34" t="n">
-        <v>-280735.40569127</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4095.7352</v>
       </c>
       <c r="G35" t="n">
-        <v>-276639.67049127</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>83450.3498</v>
       </c>
       <c r="G36" t="n">
-        <v>-360090.02029127</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10252.7491</v>
       </c>
       <c r="G37" t="n">
-        <v>-370342.76939127</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>13219.853</v>
       </c>
       <c r="G38" t="n">
-        <v>-370342.76939127</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1338</v>
       </c>
       <c r="G39" t="n">
-        <v>-369004.76939127</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>484.6706</v>
       </c>
       <c r="G40" t="n">
-        <v>-368520.09879127</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>9089.907800000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-368520.09879127</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>8089</v>
       </c>
       <c r="G42" t="n">
-        <v>-360431.09879127</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>5300.6031</v>
       </c>
       <c r="G43" t="n">
-        <v>-365731.70189127</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4043.9462</v>
       </c>
       <c r="G44" t="n">
-        <v>-369775.64809127</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>963.4733</v>
       </c>
       <c r="G45" t="n">
-        <v>-368812.17479127</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2925.0143</v>
       </c>
       <c r="G46" t="n">
-        <v>-368812.17479127</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>802.3291</v>
       </c>
       <c r="G47" t="n">
-        <v>-368009.84569127</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>235.8394</v>
       </c>
       <c r="G48" t="n">
-        <v>-368009.84569127</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1598</v>
       </c>
       <c r="G49" t="n">
-        <v>-369607.84569127</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>529.6662</v>
       </c>
       <c r="G50" t="n">
-        <v>-370137.51189127</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1528.8865</v>
       </c>
       <c r="G51" t="n">
-        <v>-371666.39839127</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>9800</v>
       </c>
       <c r="G52" t="n">
-        <v>-361866.39839127</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1533.3888</v>
       </c>
       <c r="G53" t="n">
-        <v>-363399.78719127</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>88.0254777</v>
       </c>
       <c r="G54" t="n">
-        <v>-363311.76171357</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4114</v>
       </c>
       <c r="G55" t="n">
-        <v>-367425.76171357</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>7757.7474208</v>
       </c>
       <c r="G56" t="n">
-        <v>-367425.76171357</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-367425.76171357</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>16989.8556</v>
       </c>
       <c r="G58" t="n">
-        <v>-384415.6173135701</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>984.7847</v>
       </c>
       <c r="G59" t="n">
-        <v>-384415.6173135701</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>19.95</v>
       </c>
       <c r="G60" t="n">
-        <v>-384395.66731357</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3326.5344</v>
       </c>
       <c r="G61" t="n">
-        <v>-381069.13291357</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,19 @@
         <v>9587</v>
       </c>
       <c r="G62" t="n">
-        <v>-381069.13291357</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>46.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2277,23 @@
         <v>859</v>
       </c>
       <c r="G63" t="n">
-        <v>-381069.13291357</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>46.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2315,23 @@
         <v>9486.9488</v>
       </c>
       <c r="G64" t="n">
-        <v>-381069.13291357</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>46.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2353,19 @@
         <v>1389.0127</v>
       </c>
       <c r="G65" t="n">
-        <v>-379680.12021357</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>46.9</v>
+      </c>
+      <c r="I65" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2387,23 @@
         <v>744.3683</v>
       </c>
       <c r="G66" t="n">
-        <v>-378935.75191357</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="I66" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2425,23 @@
         <v>118.8959</v>
       </c>
       <c r="G67" t="n">
-        <v>-378935.75191357</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2463,19 @@
         <v>5987.9999</v>
       </c>
       <c r="G68" t="n">
-        <v>-378935.75191357</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2497,21 @@
         <v>1528.6423</v>
       </c>
       <c r="G69" t="n">
-        <v>-378935.75191357</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2533,21 @@
         <v>21754.8707</v>
       </c>
       <c r="G70" t="n">
-        <v>-357180.88121357</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2569,15 @@
         <v>6261.2923</v>
       </c>
       <c r="G71" t="n">
-        <v>-357180.88121357</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2599,15 @@
         <v>86478.27039999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-443659.15161357</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2629,15 @@
         <v>2807</v>
       </c>
       <c r="G73" t="n">
-        <v>-443659.15161357</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2659,15 @@
         <v>8034.2494</v>
       </c>
       <c r="G74" t="n">
-        <v>-435624.90221357</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2689,15 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>-435624.90221357</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2719,15 @@
         <v>7482.792</v>
       </c>
       <c r="G76" t="n">
-        <v>-443107.69421357</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2749,15 @@
         <v>7803.96</v>
       </c>
       <c r="G77" t="n">
-        <v>-435303.73421357</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2779,15 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>-435303.73421357</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2809,15 @@
         <v>915.2954</v>
       </c>
       <c r="G79" t="n">
-        <v>-436219.02961357</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2839,15 @@
         <v>2170.0483</v>
       </c>
       <c r="G80" t="n">
-        <v>-438389.07791357</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2869,15 @@
         <v>3561.5606</v>
       </c>
       <c r="G81" t="n">
-        <v>-434827.51731357</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2899,15 @@
         <v>0.0001</v>
       </c>
       <c r="G82" t="n">
-        <v>-434827.51731357</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2929,15 @@
         <v>647.2017</v>
       </c>
       <c r="G83" t="n">
-        <v>-434827.51731357</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2959,15 @@
         <v>21.99152542</v>
       </c>
       <c r="G84" t="n">
-        <v>-434805.52578815</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2989,15 @@
         <v>7402.5</v>
       </c>
       <c r="G85" t="n">
-        <v>-434805.52578815</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3019,15 @@
         <v>8488.492200000001</v>
       </c>
       <c r="G86" t="n">
-        <v>-443294.01798815</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3049,15 @@
         <v>2031.2943</v>
       </c>
       <c r="G87" t="n">
-        <v>-441262.72368815</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3079,15 @@
         <v>367.8764</v>
       </c>
       <c r="G88" t="n">
-        <v>-441262.72368815</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3109,15 @@
         <v>3881.3163</v>
       </c>
       <c r="G89" t="n">
-        <v>-437381.40738815</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3139,15 @@
         <v>32</v>
       </c>
       <c r="G90" t="n">
-        <v>-437413.40738815</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,22 +3169,15 @@
         <v>2238.7752</v>
       </c>
       <c r="G91" t="n">
-        <v>-439652.18258815</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>47</v>
-      </c>
-      <c r="J91" t="n">
-        <v>47</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3422,26 +3199,15 @@
         <v>2360.515</v>
       </c>
       <c r="G92" t="n">
-        <v>-442012.69758815</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>47</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3463,26 +3229,15 @@
         <v>563.7631</v>
       </c>
       <c r="G93" t="n">
-        <v>-441448.93448815</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>47</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3504,26 +3259,15 @@
         <v>7815</v>
       </c>
       <c r="G94" t="n">
-        <v>-441448.93448815</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>47</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3545,26 +3289,15 @@
         <v>33.00211416</v>
       </c>
       <c r="G95" t="n">
-        <v>-441415.93237399</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>47</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3586,26 +3319,15 @@
         <v>101269.1637</v>
       </c>
       <c r="G96" t="n">
-        <v>-340146.76867399</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>47</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3627,24 +3349,15 @@
         <v>101015.9907</v>
       </c>
       <c r="G97" t="n">
-        <v>-441162.75937399</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>47</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3666,24 +3379,15 @@
         <v>3200</v>
       </c>
       <c r="G98" t="n">
-        <v>-437962.75937399</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>47</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3705,24 +3409,15 @@
         <v>1837.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>-436124.75947399</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>47</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3744,24 +3439,15 @@
         <v>1095.3472</v>
       </c>
       <c r="G100" t="n">
-        <v>-436124.75947399</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>47</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3783,24 +3469,15 @@
         <v>800.1343000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-436124.75947399</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>47</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3822,24 +3499,15 @@
         <v>0.0001</v>
       </c>
       <c r="G102" t="n">
-        <v>-436124.75947399</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>47</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3861,24 +3529,15 @@
         <v>8600</v>
       </c>
       <c r="G103" t="n">
-        <v>-427524.75947399</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>47</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3900,24 +3559,15 @@
         <v>1100</v>
       </c>
       <c r="G104" t="n">
-        <v>-426424.75947399</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>47</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3939,24 +3589,15 @@
         <v>6306.5056</v>
       </c>
       <c r="G105" t="n">
-        <v>-426424.75947399</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>47</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3978,24 +3619,15 @@
         <v>6722</v>
       </c>
       <c r="G106" t="n">
-        <v>-419702.75947399</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>47</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4017,24 +3649,15 @@
         <v>1907</v>
       </c>
       <c r="G107" t="n">
-        <v>-417795.75947399</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>47</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4056,24 +3679,15 @@
         <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>47</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4095,24 +3709,15 @@
         <v>14.2505</v>
       </c>
       <c r="G109" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>47</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4134,24 +3739,15 @@
         <v>5000</v>
       </c>
       <c r="G110" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>47</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4173,24 +3769,15 @@
         <v>53812.1724</v>
       </c>
       <c r="G111" t="n">
-        <v>-407795.75947399</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>47</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4212,24 +3799,15 @@
         <v>1832.1627</v>
       </c>
       <c r="G112" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>47</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4251,24 +3829,15 @@
         <v>1829.9998</v>
       </c>
       <c r="G113" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>47</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4290,24 +3859,15 @@
         <v>0.0001</v>
       </c>
       <c r="G114" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>47</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1.033297872340426</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4329,18 +3889,15 @@
         <v>6097.5517</v>
       </c>
       <c r="G115" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4362,18 +3919,15 @@
         <v>781.0855</v>
       </c>
       <c r="G116" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4395,18 +3949,15 @@
         <v>4320</v>
       </c>
       <c r="G117" t="n">
-        <v>-405963.59677399</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4428,18 +3979,15 @@
         <v>998.6291</v>
       </c>
       <c r="G118" t="n">
-        <v>-406962.22587399</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4461,18 +4009,15 @@
         <v>10000</v>
       </c>
       <c r="G119" t="n">
-        <v>-396962.22587399</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4494,18 +4039,15 @@
         <v>15288.0657</v>
       </c>
       <c r="G120" t="n">
-        <v>-412250.29157399</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4527,18 +4069,15 @@
         <v>7160</v>
       </c>
       <c r="G121" t="n">
-        <v>-405090.29157399</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4560,18 +4099,15 @@
         <v>2229.8155</v>
       </c>
       <c r="G122" t="n">
-        <v>-405090.29157399</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4593,18 +4129,15 @@
         <v>10000</v>
       </c>
       <c r="G123" t="n">
-        <v>-415090.29157399</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4626,18 +4159,15 @@
         <v>11800</v>
       </c>
       <c r="G124" t="n">
-        <v>-426890.29157399</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
